--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_16_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_16_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1014990.18931114</v>
+        <v>1012445.012895658</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>265.6079703699614</v>
+        <v>341.1569118905548</v>
       </c>
       <c r="C11" t="n">
-        <v>323.6959619980816</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>313.106111847757</v>
+        <v>313.1061118477572</v>
       </c>
       <c r="E11" t="n">
-        <v>340.3534402993358</v>
+        <v>131.571170539303</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>365.2991159687857</v>
       </c>
       <c r="G11" t="n">
-        <v>369.3447958805275</v>
+        <v>369.3447958805277</v>
       </c>
       <c r="H11" t="n">
-        <v>253.0308346143945</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>67.61083201524987</v>
+        <v>67.61083201525004</v>
       </c>
       <c r="T11" t="n">
-        <v>162.3410403666942</v>
+        <v>162.3410403666944</v>
       </c>
       <c r="U11" t="n">
-        <v>209.418242185976</v>
+        <v>209.4182421859762</v>
       </c>
       <c r="V11" t="n">
-        <v>286.175328697209</v>
+        <v>286.1753286972091</v>
       </c>
       <c r="W11" t="n">
-        <v>307.6640389444871</v>
+        <v>307.6640389444872</v>
       </c>
       <c r="X11" t="n">
-        <v>328.1541709055431</v>
+        <v>328.1541709055433</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>344.6610088831278</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>138.2550504090113</v>
+        <v>138.2550504090115</v>
       </c>
       <c r="C13" t="n">
-        <v>125.6698913257019</v>
+        <v>125.669891325702</v>
       </c>
       <c r="D13" t="n">
-        <v>107.0385432452864</v>
+        <v>107.0385432452866</v>
       </c>
       <c r="E13" t="n">
-        <v>104.8570328736432</v>
+        <v>104.8570328736434</v>
       </c>
       <c r="F13" t="n">
-        <v>103.8441182500053</v>
+        <v>103.8441182500055</v>
       </c>
       <c r="G13" t="n">
-        <v>124.4488784861022</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>103.1780851413948</v>
+        <v>103.178085141395</v>
       </c>
       <c r="I13" t="n">
-        <v>54.77549063691213</v>
+        <v>50.52679935684202</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>47.35522289712137</v>
+        <v>47.35522289712156</v>
       </c>
       <c r="S13" t="n">
-        <v>148.1920955585159</v>
+        <v>148.1920955585161</v>
       </c>
       <c r="T13" t="n">
-        <v>177.9720195032432</v>
+        <v>177.9720195032434</v>
       </c>
       <c r="U13" t="n">
-        <v>244.6349084326869</v>
+        <v>244.6349084326871</v>
       </c>
       <c r="V13" t="n">
-        <v>210.560713550902</v>
+        <v>210.5607135509022</v>
       </c>
       <c r="W13" t="n">
-        <v>116.2484987974966</v>
+        <v>244.9460685636652</v>
       </c>
       <c r="X13" t="n">
-        <v>184.1327256161112</v>
+        <v>184.1327256161114</v>
       </c>
       <c r="Y13" t="n">
-        <v>177.0077235791688</v>
+        <v>177.007723579169</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>341.1569118905546</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>323.6959619980816</v>
+        <v>323.6959619980818</v>
       </c>
       <c r="D14" t="n">
-        <v>179.0714901412457</v>
+        <v>313.1061118477572</v>
       </c>
       <c r="E14" t="n">
-        <v>340.3534402993358</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>365.2991159687857</v>
       </c>
       <c r="G14" t="n">
-        <v>369.3447958805275</v>
+        <v>369.3447958805277</v>
       </c>
       <c r="H14" t="n">
-        <v>253.0308346143945</v>
+        <v>149.0321204317767</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>67.61083201524988</v>
+        <v>67.61083201525003</v>
       </c>
       <c r="T14" t="n">
-        <v>162.3410403666942</v>
+        <v>162.3410403666944</v>
       </c>
       <c r="U14" t="n">
-        <v>209.418242185976</v>
+        <v>209.4182421859762</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>286.1753286972091</v>
       </c>
       <c r="W14" t="n">
-        <v>307.6640389444871</v>
+        <v>307.6640389444872</v>
       </c>
       <c r="X14" t="n">
-        <v>328.1541709055431</v>
+        <v>328.1541709055433</v>
       </c>
       <c r="Y14" t="n">
-        <v>344.6610088831276</v>
+        <v>344.6610088831278</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>138.2550504090113</v>
+        <v>138.2550504090115</v>
       </c>
       <c r="C16" t="n">
-        <v>125.6698913257019</v>
+        <v>125.669891325702</v>
       </c>
       <c r="D16" t="n">
-        <v>107.0385432452864</v>
+        <v>107.0385432452865</v>
       </c>
       <c r="E16" t="n">
-        <v>104.8570328736432</v>
+        <v>104.8570328736434</v>
       </c>
       <c r="F16" t="n">
-        <v>103.8441182500053</v>
+        <v>29.92203912074538</v>
       </c>
       <c r="G16" t="n">
-        <v>124.4488784861023</v>
+        <v>124.4488784861024</v>
       </c>
       <c r="H16" t="n">
-        <v>103.1780851413948</v>
+        <v>103.178085141395</v>
       </c>
       <c r="I16" t="n">
-        <v>54.77549063691215</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>47.35522289712139</v>
+        <v>47.35522289712153</v>
       </c>
       <c r="S16" t="n">
-        <v>148.1920955585159</v>
+        <v>148.1920955585161</v>
       </c>
       <c r="T16" t="n">
-        <v>177.9720195032432</v>
+        <v>177.9720195032434</v>
       </c>
       <c r="U16" t="n">
-        <v>244.6349084326869</v>
+        <v>244.6349084326871</v>
       </c>
       <c r="V16" t="n">
-        <v>81.86314378473347</v>
+        <v>210.5607135509022</v>
       </c>
       <c r="W16" t="n">
-        <v>244.9460685636651</v>
+        <v>244.9460685636652</v>
       </c>
       <c r="X16" t="n">
-        <v>184.1327256161112</v>
+        <v>184.1327256161113</v>
       </c>
       <c r="Y16" t="n">
-        <v>177.0077235791688</v>
+        <v>177.007723579169</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>332.0618795246037</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>314.6009296321307</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>304.0110794818061</v>
+        <v>304.0110794818058</v>
       </c>
       <c r="E17" t="n">
-        <v>331.2584079333849</v>
+        <v>319.7426038409296</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>356.2040836028343</v>
       </c>
       <c r="G17" t="n">
-        <v>360.2497635145766</v>
+        <v>360.2497635145763</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9358022484436</v>
+        <v>243.9358022484433</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>58.51579964929898</v>
+        <v>58.51579964929863</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>153.246008000743</v>
       </c>
       <c r="U17" t="n">
-        <v>200.3232098200251</v>
+        <v>200.3232098200248</v>
       </c>
       <c r="V17" t="n">
-        <v>128.3517746856418</v>
+        <v>277.0802963312577</v>
       </c>
       <c r="W17" t="n">
-        <v>298.5690065785361</v>
+        <v>298.5690065785358</v>
       </c>
       <c r="X17" t="n">
-        <v>319.0591385395921</v>
+        <v>319.0591385395919</v>
       </c>
       <c r="Y17" t="n">
-        <v>335.5659765171768</v>
+        <v>335.5659765171764</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>129.1600180430604</v>
+        <v>129.1600180430601</v>
       </c>
       <c r="C19" t="n">
-        <v>116.574858959751</v>
+        <v>116.5748589597506</v>
       </c>
       <c r="D19" t="n">
-        <v>97.94351087933549</v>
+        <v>97.94351087933516</v>
       </c>
       <c r="E19" t="n">
-        <v>95.76200050769231</v>
+        <v>95.76200050769198</v>
       </c>
       <c r="F19" t="n">
-        <v>94.74908588405438</v>
+        <v>94.74908588405405</v>
       </c>
       <c r="G19" t="n">
-        <v>115.3538461201514</v>
+        <v>115.353846120151</v>
       </c>
       <c r="H19" t="n">
-        <v>94.08305277544392</v>
+        <v>94.08305277544359</v>
       </c>
       <c r="I19" t="n">
-        <v>45.68045827096125</v>
+        <v>45.68045827096091</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>38.26019053117048</v>
+        <v>38.26019053117014</v>
       </c>
       <c r="S19" t="n">
-        <v>139.097063192565</v>
+        <v>139.0970631925647</v>
       </c>
       <c r="T19" t="n">
-        <v>168.8769871372923</v>
+        <v>168.876987137292</v>
       </c>
       <c r="U19" t="n">
-        <v>235.539876066736</v>
+        <v>235.5398760667357</v>
       </c>
       <c r="V19" t="n">
-        <v>201.4656811849511</v>
+        <v>201.4656811849508</v>
       </c>
       <c r="W19" t="n">
-        <v>235.8510361977141</v>
+        <v>235.8510361977138</v>
       </c>
       <c r="X19" t="n">
-        <v>175.0376932501603</v>
+        <v>175.03769325016</v>
       </c>
       <c r="Y19" t="n">
-        <v>167.9126912132179</v>
+        <v>167.9126912132176</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>332.0618795246037</v>
+        <v>332.0618795246034</v>
       </c>
       <c r="C20" t="n">
-        <v>314.6009296321307</v>
+        <v>314.6009296321304</v>
       </c>
       <c r="D20" t="n">
-        <v>159.3282377479323</v>
+        <v>304.0110794818058</v>
       </c>
       <c r="E20" t="n">
-        <v>331.2584079333849</v>
+        <v>331.2584079333846</v>
       </c>
       <c r="F20" t="n">
-        <v>356.2040836028346</v>
+        <v>58.27523386822183</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>243.9358022484436</v>
+        <v>243.9358022484433</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>58.51579964929898</v>
+        <v>58.51579964929863</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>153.246008000743</v>
       </c>
       <c r="U20" t="n">
-        <v>200.3232098200251</v>
+        <v>200.3232098200248</v>
       </c>
       <c r="V20" t="n">
-        <v>277.0802963312581</v>
+        <v>277.0802963312577</v>
       </c>
       <c r="W20" t="n">
-        <v>298.5690065785362</v>
+        <v>298.5690065785358</v>
       </c>
       <c r="X20" t="n">
-        <v>319.0591385395922</v>
+        <v>319.0591385395919</v>
       </c>
       <c r="Y20" t="n">
-        <v>335.5659765171768</v>
+        <v>335.5659765171764</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>129.1600180430604</v>
+        <v>129.1600180430601</v>
       </c>
       <c r="C22" t="n">
-        <v>116.574858959751</v>
+        <v>116.5748589597506</v>
       </c>
       <c r="D22" t="n">
-        <v>97.94351087933549</v>
+        <v>97.94351087933516</v>
       </c>
       <c r="E22" t="n">
-        <v>95.76200050769231</v>
+        <v>95.76200050769198</v>
       </c>
       <c r="F22" t="n">
-        <v>94.74908588405438</v>
+        <v>94.74908588405405</v>
       </c>
       <c r="G22" t="n">
-        <v>115.3538461201514</v>
+        <v>115.353846120151</v>
       </c>
       <c r="H22" t="n">
-        <v>94.08305277544392</v>
+        <v>94.08305277544359</v>
       </c>
       <c r="I22" t="n">
-        <v>45.68045827096123</v>
+        <v>45.68045827096091</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>38.26019053117047</v>
+        <v>38.26019053117014</v>
       </c>
       <c r="S22" t="n">
-        <v>139.097063192565</v>
+        <v>139.0970631925647</v>
       </c>
       <c r="T22" t="n">
-        <v>168.8769871372923</v>
+        <v>168.876987137292</v>
       </c>
       <c r="U22" t="n">
-        <v>235.539876066736</v>
+        <v>235.5398760667357</v>
       </c>
       <c r="V22" t="n">
-        <v>201.4656811849511</v>
+        <v>201.4656811849508</v>
       </c>
       <c r="W22" t="n">
-        <v>235.8510361977141</v>
+        <v>235.8510361977138</v>
       </c>
       <c r="X22" t="n">
-        <v>175.0376932501603</v>
+        <v>175.03769325016</v>
       </c>
       <c r="Y22" t="n">
-        <v>167.9126912132179</v>
+        <v>167.9126912132176</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>332.0618795246037</v>
+        <v>332.0618795246034</v>
       </c>
       <c r="C23" t="n">
-        <v>314.6009296321307</v>
+        <v>314.6009296321304</v>
       </c>
       <c r="D23" t="n">
-        <v>304.0110794818061</v>
+        <v>304.0110794818058</v>
       </c>
       <c r="E23" t="n">
-        <v>331.2584079333849</v>
+        <v>331.2584079333846</v>
       </c>
       <c r="F23" t="n">
-        <v>356.2040836028346</v>
+        <v>356.2040836028343</v>
       </c>
       <c r="G23" t="n">
-        <v>360.2497635145766</v>
+        <v>360.2497635145763</v>
       </c>
       <c r="H23" t="n">
-        <v>243.9358022484436</v>
+        <v>243.9358022484433</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>58.51579964929898</v>
+        <v>58.51579964929864</v>
       </c>
       <c r="T23" t="n">
-        <v>153.2460080007433</v>
+        <v>153.246008000743</v>
       </c>
       <c r="U23" t="n">
-        <v>200.3232098200251</v>
+        <v>200.3232098200248</v>
       </c>
       <c r="V23" t="n">
-        <v>277.0802963312581</v>
+        <v>277.0802963312577</v>
       </c>
       <c r="W23" t="n">
-        <v>298.5690065785362</v>
+        <v>298.5690065785358</v>
       </c>
       <c r="X23" t="n">
-        <v>319.0591385395922</v>
+        <v>319.0591385395919</v>
       </c>
       <c r="Y23" t="n">
-        <v>335.5659765171768</v>
+        <v>335.5659765171764</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>129.1600180430604</v>
+        <v>129.1600180430601</v>
       </c>
       <c r="C25" t="n">
-        <v>116.574858959751</v>
+        <v>116.5748589597506</v>
       </c>
       <c r="D25" t="n">
-        <v>97.94351087933549</v>
+        <v>97.94351087933516</v>
       </c>
       <c r="E25" t="n">
-        <v>95.76200050769231</v>
+        <v>95.76200050769198</v>
       </c>
       <c r="F25" t="n">
-        <v>94.74908588405438</v>
+        <v>94.74908588405405</v>
       </c>
       <c r="G25" t="n">
-        <v>115.3538461201514</v>
+        <v>115.353846120151</v>
       </c>
       <c r="H25" t="n">
-        <v>94.08305277544392</v>
+        <v>94.08305277544359</v>
       </c>
       <c r="I25" t="n">
-        <v>45.68045827096123</v>
+        <v>45.68045827096091</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>38.26019053117047</v>
+        <v>38.26019053117014</v>
       </c>
       <c r="S25" t="n">
-        <v>139.097063192565</v>
+        <v>139.0970631925647</v>
       </c>
       <c r="T25" t="n">
-        <v>168.8769871372923</v>
+        <v>168.876987137292</v>
       </c>
       <c r="U25" t="n">
-        <v>235.539876066736</v>
+        <v>235.5398760667357</v>
       </c>
       <c r="V25" t="n">
-        <v>201.4656811849511</v>
+        <v>201.4656811849508</v>
       </c>
       <c r="W25" t="n">
-        <v>235.8510361977141</v>
+        <v>235.8510361977138</v>
       </c>
       <c r="X25" t="n">
-        <v>175.0376932501603</v>
+        <v>175.03769325016</v>
       </c>
       <c r="Y25" t="n">
-        <v>167.9126912132179</v>
+        <v>167.9126912132176</v>
       </c>
     </row>
     <row r="26">
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E26" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
         <v>359.9009091231189</v>
@@ -2570,7 +2570,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H26" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958333</v>
+        <v>62.21262516958327</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U26" t="n">
-        <v>204.0200353403095</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V26" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
         <v>302.2658320988205</v>
@@ -2621,7 +2621,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y26" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
         <v>120.2716844800353</v>
       </c>
       <c r="D28" t="n">
-        <v>101.6403363996199</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797667</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433874</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572828</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124458</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145482</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T28" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U28" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V28" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W28" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X28" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958327</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2889,7 +2889,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247752</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
         <v>120.2716844800353</v>
@@ -2956,19 +2956,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124593</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T31" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U31" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V31" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W31" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X31" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3126,7 +3126,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3205,7 +3205,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3269,16 +3269,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D35" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E35" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F35" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G35" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H35" t="n">
         <v>247.6326277687279</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T35" t="n">
         <v>156.9428335210276</v>
@@ -3326,10 +3326,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W35" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X35" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y35" t="n">
         <v>339.262802037461</v>
@@ -3424,25 +3424,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C37" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D37" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G37" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128493</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
         <v>120.2716844800353</v>
@@ -3667,19 +3667,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797664</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U40" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X40" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3916,7 +3916,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3992,7 +3992,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H44" t="n">
-        <v>247.6326277687279</v>
+        <v>247.6326277687267</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958327</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4153,7 +4153,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1682.20014132117</v>
+        <v>1257.745645963874</v>
       </c>
       <c r="C11" t="n">
-        <v>1355.234523141289</v>
+        <v>1257.745645963874</v>
       </c>
       <c r="D11" t="n">
-        <v>1038.96572329507</v>
+        <v>941.4768461176545</v>
       </c>
       <c r="E11" t="n">
-        <v>695.1743694573572</v>
+        <v>808.5766738557321</v>
       </c>
       <c r="F11" t="n">
-        <v>695.1743694573572</v>
+        <v>439.5876678266558</v>
       </c>
       <c r="G11" t="n">
-        <v>322.0988180628849</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H11" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I11" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3257.312051896797</v>
+        <v>3257.312051896796</v>
       </c>
       <c r="T11" t="n">
-        <v>3093.33120304155</v>
+        <v>3093.331203041549</v>
       </c>
       <c r="U11" t="n">
-        <v>2881.797625075918</v>
+        <v>2881.797625075917</v>
       </c>
       <c r="V11" t="n">
-        <v>2592.731636492879</v>
+        <v>2592.731636492877</v>
       </c>
       <c r="W11" t="n">
-        <v>2281.959879983296</v>
+        <v>2281.959879983294</v>
       </c>
       <c r="X11" t="n">
-        <v>1950.491020482747</v>
+        <v>1950.491020482745</v>
       </c>
       <c r="Y11" t="n">
-        <v>1950.491020482747</v>
+        <v>1602.348587267464</v>
       </c>
     </row>
     <row r="12">
@@ -5094,34 +5094,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811072</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999803</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387291</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332735</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601586</v>
       </c>
       <c r="G12" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L12" t="n">
         <v>765.151745215813</v>
@@ -5130,40 +5130,40 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>797.6353891180885</v>
+        <v>667.6378438997333</v>
       </c>
       <c r="C13" t="n">
-        <v>670.6961049507129</v>
+        <v>540.6985597323574</v>
       </c>
       <c r="D13" t="n">
-        <v>562.5763642989084</v>
+        <v>432.5788190805528</v>
       </c>
       <c r="E13" t="n">
-        <v>456.6601694770466</v>
+        <v>326.6626242586908</v>
       </c>
       <c r="F13" t="n">
-        <v>351.7671207396675</v>
+        <v>221.7695755213117</v>
       </c>
       <c r="G13" t="n">
-        <v>226.0611828749177</v>
+        <v>221.7695755213117</v>
       </c>
       <c r="H13" t="n">
-        <v>121.8408948533068</v>
+        <v>117.5492874997005</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
-        <v>152.7959093543157</v>
+        <v>152.7959093543155</v>
       </c>
       <c r="K13" t="n">
-        <v>397.9442527783884</v>
+        <v>397.9442527783883</v>
       </c>
       <c r="L13" t="n">
-        <v>755.6652117020813</v>
+        <v>755.665211702081</v>
       </c>
       <c r="M13" t="n">
-        <v>1140.983417776827</v>
+        <v>1140.983417776826</v>
       </c>
       <c r="N13" t="n">
         <v>1523.552954957888</v>
       </c>
       <c r="O13" t="n">
-        <v>1864.043714353498</v>
+        <v>1864.043714353497</v>
       </c>
       <c r="P13" t="n">
-        <v>2137.812375262354</v>
+        <v>2137.812375262353</v>
       </c>
       <c r="Q13" t="n">
-        <v>2256.583831890065</v>
+        <v>2256.583831890064</v>
       </c>
       <c r="R13" t="n">
-        <v>2208.750273408124</v>
+        <v>2208.750273408123</v>
       </c>
       <c r="S13" t="n">
-        <v>2059.061287995482</v>
+        <v>2059.061287995481</v>
       </c>
       <c r="T13" t="n">
-        <v>1879.291571325539</v>
+        <v>1879.291571325538</v>
       </c>
       <c r="U13" t="n">
-        <v>1632.185603211714</v>
+        <v>1632.185603211712</v>
       </c>
       <c r="V13" t="n">
-        <v>1419.498013766359</v>
+        <v>1419.498013766357</v>
       </c>
       <c r="W13" t="n">
-        <v>1302.075287708282</v>
+        <v>1172.077742489927</v>
       </c>
       <c r="X13" t="n">
-        <v>1116.082635570796</v>
+        <v>986.0850903524408</v>
       </c>
       <c r="Y13" t="n">
-        <v>937.2869551877969</v>
+        <v>807.2894099694419</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1546.811634546917</v>
+        <v>1602.348587267466</v>
       </c>
       <c r="C14" t="n">
-        <v>1219.846016367036</v>
+        <v>1275.382969087585</v>
       </c>
       <c r="D14" t="n">
-        <v>1038.965723295071</v>
+        <v>959.1141692413655</v>
       </c>
       <c r="E14" t="n">
-        <v>695.1743694573572</v>
+        <v>959.1141692413655</v>
       </c>
       <c r="F14" t="n">
-        <v>695.1743694573572</v>
+        <v>590.1251632122891</v>
       </c>
       <c r="G14" t="n">
-        <v>322.098818062885</v>
+        <v>217.0496118178166</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3257.312051896798</v>
+        <v>3257.312051896797</v>
       </c>
       <c r="T14" t="n">
-        <v>3093.331203041552</v>
+        <v>3093.33120304155</v>
       </c>
       <c r="U14" t="n">
-        <v>2881.797625075919</v>
+        <v>2881.797625075917</v>
       </c>
       <c r="V14" t="n">
-        <v>2881.797625075919</v>
+        <v>2592.731636492878</v>
       </c>
       <c r="W14" t="n">
-        <v>2571.025868566337</v>
+        <v>2281.959879983295</v>
       </c>
       <c r="X14" t="n">
-        <v>2239.557009065788</v>
+        <v>1950.491020482746</v>
       </c>
       <c r="Y14" t="n">
-        <v>1891.414575850507</v>
+        <v>1602.348587267466</v>
       </c>
     </row>
     <row r="15">
@@ -5331,43 +5331,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
         <v>2096.912393410638</v>
@@ -5388,7 +5388,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>797.6353891180886</v>
+        <v>667.6378438997338</v>
       </c>
       <c r="C16" t="n">
-        <v>670.696104950713</v>
+        <v>540.6985597323579</v>
       </c>
       <c r="D16" t="n">
-        <v>562.5763642989085</v>
+        <v>432.5788190805533</v>
       </c>
       <c r="E16" t="n">
-        <v>456.6601694770466</v>
+        <v>326.6626242586913</v>
       </c>
       <c r="F16" t="n">
-        <v>351.7671207396675</v>
+        <v>296.4383423185444</v>
       </c>
       <c r="G16" t="n">
-        <v>226.0611828749178</v>
+        <v>170.7324044537945</v>
       </c>
       <c r="H16" t="n">
-        <v>121.8408948533068</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>152.7959093543157</v>
+        <v>152.7959093543155</v>
       </c>
       <c r="K16" t="n">
         <v>397.9442527783885</v>
       </c>
       <c r="L16" t="n">
-        <v>755.6652117020814</v>
+        <v>755.6652117020811</v>
       </c>
       <c r="M16" t="n">
         <v>1140.983417776827</v>
@@ -5455,7 +5455,7 @@
         <v>2137.812375262354</v>
       </c>
       <c r="Q16" t="n">
-        <v>2256.583831890066</v>
+        <v>2256.583831890065</v>
       </c>
       <c r="R16" t="n">
         <v>2208.750273408124</v>
@@ -5464,22 +5464,22 @@
         <v>2059.061287995482</v>
       </c>
       <c r="T16" t="n">
-        <v>1879.29157132554</v>
+        <v>1879.291571325539</v>
       </c>
       <c r="U16" t="n">
-        <v>1632.185603211715</v>
+        <v>1632.185603211713</v>
       </c>
       <c r="V16" t="n">
-        <v>1549.495558984711</v>
+        <v>1419.498013766357</v>
       </c>
       <c r="W16" t="n">
-        <v>1302.075287708282</v>
+        <v>1172.077742489927</v>
       </c>
       <c r="X16" t="n">
-        <v>1116.082635570796</v>
+        <v>986.0850903524413</v>
       </c>
       <c r="Y16" t="n">
-        <v>937.286955187797</v>
+        <v>807.2894099694423</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1636.265634422428</v>
+        <v>1666.656896925708</v>
       </c>
       <c r="C17" t="n">
-        <v>1318.486917622296</v>
+        <v>1666.656896925708</v>
       </c>
       <c r="D17" t="n">
-        <v>1011.405019155826</v>
+        <v>1359.574998459238</v>
       </c>
       <c r="E17" t="n">
-        <v>676.8005666978604</v>
+        <v>1036.602671347187</v>
       </c>
       <c r="F17" t="n">
-        <v>676.8005666978604</v>
+        <v>676.8005666978597</v>
       </c>
       <c r="G17" t="n">
-        <v>312.9119166831366</v>
+        <v>312.9119166831363</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218342</v>
@@ -5513,19 +5513,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
@@ -5540,25 +5540,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3266.498953276545</v>
+        <v>3266.498953276546</v>
       </c>
       <c r="T17" t="n">
-        <v>3266.498953276545</v>
+        <v>3111.705005801048</v>
       </c>
       <c r="U17" t="n">
-        <v>3064.152276690661</v>
+        <v>2909.358329215164</v>
       </c>
       <c r="V17" t="n">
-        <v>2934.504019432437</v>
+        <v>2629.479242011874</v>
       </c>
       <c r="W17" t="n">
-        <v>2632.919164302603</v>
+        <v>2327.89438688204</v>
       </c>
       <c r="X17" t="n">
-        <v>2310.637206181803</v>
+        <v>2005.61242876124</v>
       </c>
       <c r="Y17" t="n">
-        <v>1971.68167434627</v>
+        <v>1666.656896925708</v>
       </c>
     </row>
     <row r="18">
@@ -5583,28 +5583,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
         <v>2096.912393410638</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>733.3270794598498</v>
+        <v>733.3270794598475</v>
       </c>
       <c r="C19" t="n">
-        <v>615.5746966722226</v>
+        <v>615.5746966722205</v>
       </c>
       <c r="D19" t="n">
-        <v>516.6418574001665</v>
+        <v>516.6418574001648</v>
       </c>
       <c r="E19" t="n">
-        <v>419.9125639580531</v>
+        <v>419.9125639580517</v>
       </c>
       <c r="F19" t="n">
-        <v>324.2064166004224</v>
+        <v>324.2064166004213</v>
       </c>
       <c r="G19" t="n">
-        <v>207.687380115421</v>
+        <v>207.6873801154203</v>
       </c>
       <c r="H19" t="n">
-        <v>112.6539934735584</v>
+        <v>112.6539934735581</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>161.799991396607</v>
+        <v>161.7999913966074</v>
       </c>
       <c r="K19" t="n">
-        <v>415.9524168629714</v>
+        <v>365.7871743454838</v>
       </c>
       <c r="L19" t="n">
-        <v>782.6774578289555</v>
+        <v>732.5122153114684</v>
       </c>
       <c r="M19" t="n">
-        <v>1138.139455267527</v>
+        <v>1126.834503428506</v>
       </c>
       <c r="N19" t="n">
-        <v>1529.71307449088</v>
+        <v>1518.408122651859</v>
       </c>
       <c r="O19" t="n">
-        <v>1829.042673411293</v>
+        <v>1867.902964089761</v>
       </c>
       <c r="P19" t="n">
-        <v>2111.81541636244</v>
+        <v>2150.675707040908</v>
       </c>
       <c r="Q19" t="n">
-        <v>2239.590955032443</v>
+        <v>2239.590955032439</v>
       </c>
       <c r="R19" t="n">
-        <v>2200.944297930251</v>
+        <v>2200.944297930247</v>
       </c>
       <c r="S19" t="n">
-        <v>2060.442213897357</v>
+        <v>2060.442213897353</v>
       </c>
       <c r="T19" t="n">
-        <v>1889.859398607163</v>
+        <v>1889.859398607159</v>
       </c>
       <c r="U19" t="n">
-        <v>1651.940331873086</v>
+        <v>1651.940331873082</v>
       </c>
       <c r="V19" t="n">
-        <v>1448.439643807479</v>
+        <v>1448.439643807475</v>
       </c>
       <c r="W19" t="n">
-        <v>1210.206273910798</v>
+        <v>1210.206273910795</v>
       </c>
       <c r="X19" t="n">
-        <v>1033.40052315306</v>
+        <v>1033.400523153057</v>
       </c>
       <c r="Y19" t="n">
-        <v>863.7917441498098</v>
+        <v>863.7917441498072</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1486.034804477362</v>
+        <v>1331.240857001866</v>
       </c>
       <c r="C20" t="n">
-        <v>1168.25608767723</v>
+        <v>1013.462140201734</v>
       </c>
       <c r="D20" t="n">
-        <v>1007.318473790429</v>
+        <v>706.3802417352636</v>
       </c>
       <c r="E20" t="n">
-        <v>672.7140213324645</v>
+        <v>371.7757892772997</v>
       </c>
       <c r="F20" t="n">
-        <v>312.9119166831366</v>
+        <v>312.9119166831363</v>
       </c>
       <c r="G20" t="n">
-        <v>312.9119166831366</v>
+        <v>312.9119166831363</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218342</v>
@@ -5750,13 +5750,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001389</v>
@@ -5777,25 +5777,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3266.498953276545</v>
+        <v>3266.498953276546</v>
       </c>
       <c r="T20" t="n">
-        <v>3266.498953276545</v>
+        <v>3111.705005801048</v>
       </c>
       <c r="U20" t="n">
-        <v>3064.152276690661</v>
+        <v>2909.358329215164</v>
       </c>
       <c r="V20" t="n">
-        <v>2784.27318948737</v>
+        <v>2629.479242011873</v>
       </c>
       <c r="W20" t="n">
-        <v>2482.688334357536</v>
+        <v>2327.894386882039</v>
       </c>
       <c r="X20" t="n">
-        <v>2160.406376236736</v>
+        <v>2005.612428761239</v>
       </c>
       <c r="Y20" t="n">
-        <v>1821.450844401204</v>
+        <v>1666.656896925707</v>
       </c>
     </row>
     <row r="21">
@@ -5832,10 +5832,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>733.3270794598498</v>
+        <v>733.3270794598475</v>
       </c>
       <c r="C22" t="n">
-        <v>615.5746966722226</v>
+        <v>615.5746966722205</v>
       </c>
       <c r="D22" t="n">
-        <v>516.6418574001665</v>
+        <v>516.6418574001648</v>
       </c>
       <c r="E22" t="n">
-        <v>419.9125639580531</v>
+        <v>419.9125639580517</v>
       </c>
       <c r="F22" t="n">
-        <v>324.2064166004224</v>
+        <v>324.2064166004213</v>
       </c>
       <c r="G22" t="n">
-        <v>207.687380115421</v>
+        <v>207.6873801154203</v>
       </c>
       <c r="H22" t="n">
-        <v>112.6539934735584</v>
+        <v>112.6539934735581</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>161.7999913966071</v>
+        <v>161.7999913966074</v>
       </c>
       <c r="K22" t="n">
-        <v>415.9524168629715</v>
+        <v>365.7871743454838</v>
       </c>
       <c r="L22" t="n">
-        <v>782.6774578289558</v>
+        <v>732.5122153114684</v>
       </c>
       <c r="M22" t="n">
-        <v>1176.999745945993</v>
+        <v>1126.834503428506</v>
       </c>
       <c r="N22" t="n">
-        <v>1529.71307449088</v>
+        <v>1518.408122651859</v>
       </c>
       <c r="O22" t="n">
-        <v>1829.042673411293</v>
+        <v>1867.902964089761</v>
       </c>
       <c r="P22" t="n">
-        <v>2111.81541636244</v>
+        <v>2150.675707040908</v>
       </c>
       <c r="Q22" t="n">
-        <v>2239.590955032443</v>
+        <v>2239.590955032439</v>
       </c>
       <c r="R22" t="n">
-        <v>2200.944297930251</v>
+        <v>2200.944297930247</v>
       </c>
       <c r="S22" t="n">
-        <v>2060.442213897357</v>
+        <v>2060.442213897353</v>
       </c>
       <c r="T22" t="n">
-        <v>1889.859398607163</v>
+        <v>1889.859398607159</v>
       </c>
       <c r="U22" t="n">
-        <v>1651.940331873086</v>
+        <v>1651.940331873082</v>
       </c>
       <c r="V22" t="n">
-        <v>1448.439643807479</v>
+        <v>1448.439643807475</v>
       </c>
       <c r="W22" t="n">
-        <v>1210.206273910798</v>
+        <v>1210.206273910795</v>
       </c>
       <c r="X22" t="n">
-        <v>1033.40052315306</v>
+        <v>1033.400523153057</v>
       </c>
       <c r="Y22" t="n">
-        <v>863.7917441498098</v>
+        <v>863.7917441498072</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2009.635634624203</v>
+        <v>2009.635634624201</v>
       </c>
       <c r="C23" t="n">
-        <v>1691.85691782407</v>
+        <v>1691.856917824069</v>
       </c>
       <c r="D23" t="n">
-        <v>1384.7750193576</v>
+        <v>1384.775019357598</v>
       </c>
       <c r="E23" t="n">
-        <v>1050.170566899635</v>
+        <v>1050.170566899634</v>
       </c>
       <c r="F23" t="n">
-        <v>690.3684622503073</v>
+        <v>690.3684622503065</v>
       </c>
       <c r="G23" t="n">
-        <v>326.4798122355833</v>
+        <v>326.4798122355829</v>
       </c>
       <c r="H23" t="n">
-        <v>80.08001198463019</v>
+        <v>80.0800119846301</v>
       </c>
       <c r="I23" t="n">
-        <v>80.08001198463019</v>
+        <v>80.0800119846301</v>
       </c>
       <c r="J23" t="n">
-        <v>268.9591429436556</v>
+        <v>436.3647919640086</v>
       </c>
       <c r="K23" t="n">
-        <v>923.6824750789551</v>
+        <v>1091.088124099308</v>
       </c>
       <c r="L23" t="n">
-        <v>1374.716688327364</v>
+        <v>1718.639611951798</v>
       </c>
       <c r="M23" t="n">
-        <v>1908.248592999289</v>
+        <v>2252.171516623723</v>
       </c>
       <c r="N23" t="n">
-        <v>2455.027410058071</v>
+        <v>2798.950333682505</v>
       </c>
       <c r="O23" t="n">
-        <v>2957.999880937408</v>
+        <v>3301.922804561842</v>
       </c>
       <c r="P23" t="n">
-        <v>3671.354968384354</v>
+        <v>3696.69717091902</v>
       </c>
       <c r="Q23" t="n">
-        <v>3944.983532674707</v>
+        <v>3944.983532674702</v>
       </c>
       <c r="R23" t="n">
-        <v>4004.00059923151</v>
+        <v>4004.000599231505</v>
       </c>
       <c r="S23" t="n">
-        <v>3944.893730898884</v>
+        <v>3944.89373089888</v>
       </c>
       <c r="T23" t="n">
-        <v>3790.099783423386</v>
+        <v>3790.099783423382</v>
       </c>
       <c r="U23" t="n">
-        <v>3587.753106837502</v>
+        <v>3587.753106837499</v>
       </c>
       <c r="V23" t="n">
-        <v>3307.874019634211</v>
+        <v>3307.874019634209</v>
       </c>
       <c r="W23" t="n">
-        <v>3006.289164504377</v>
+        <v>3006.289164504375</v>
       </c>
       <c r="X23" t="n">
-        <v>2684.007206383576</v>
+        <v>2684.007206383575</v>
       </c>
       <c r="Y23" t="n">
-        <v>2345.051674548045</v>
+        <v>2345.051674548043</v>
       </c>
     </row>
     <row r="24">
@@ -6042,34 +6042,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>955.1117500335555</v>
+        <v>955.1117500335553</v>
       </c>
       <c r="C24" t="n">
-        <v>780.6587207524285</v>
+        <v>780.6587207524283</v>
       </c>
       <c r="D24" t="n">
-        <v>631.7243110911772</v>
+        <v>631.724311091177</v>
       </c>
       <c r="E24" t="n">
-        <v>472.4868560857217</v>
+        <v>472.4868560857216</v>
       </c>
       <c r="F24" t="n">
-        <v>325.9522981126066</v>
+        <v>325.9522981126065</v>
       </c>
       <c r="G24" t="n">
-        <v>189.5891979452247</v>
+        <v>189.5891979452246</v>
       </c>
       <c r="H24" t="n">
-        <v>99.08730358309222</v>
+        <v>99.08730358309214</v>
       </c>
       <c r="I24" t="n">
-        <v>80.08001198463019</v>
+        <v>80.0800119846301</v>
       </c>
       <c r="J24" t="n">
         <v>173.7572814752475</v>
       </c>
       <c r="K24" t="n">
-        <v>412.0214804555947</v>
+        <v>412.0214804555946</v>
       </c>
       <c r="L24" t="n">
         <v>778.71964076826</v>
@@ -6081,7 +6081,7 @@
         <v>1699.51900954503</v>
       </c>
       <c r="O24" t="n">
-        <v>2110.480288963086</v>
+        <v>2110.480288963085</v>
       </c>
       <c r="P24" t="n">
         <v>2420.979880439188</v>
@@ -6090,7 +6090,7 @@
         <v>2578.621438085788</v>
       </c>
       <c r="R24" t="n">
-        <v>2578.477084678304</v>
+        <v>2578.477084678303</v>
       </c>
       <c r="S24" t="n">
         <v>2449.039198171783</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>746.8949750122965</v>
+        <v>746.8949750122943</v>
       </c>
       <c r="C25" t="n">
-        <v>629.1425922246693</v>
+        <v>629.1425922246673</v>
       </c>
       <c r="D25" t="n">
-        <v>530.2097529526133</v>
+        <v>530.2097529526116</v>
       </c>
       <c r="E25" t="n">
-        <v>433.4804595104998</v>
+        <v>433.4804595104984</v>
       </c>
       <c r="F25" t="n">
-        <v>337.7743121528691</v>
+        <v>337.774312152868</v>
       </c>
       <c r="G25" t="n">
-        <v>221.2552756678677</v>
+        <v>221.255275667867</v>
       </c>
       <c r="H25" t="n">
-        <v>126.2218890260052</v>
+        <v>126.2218890260048</v>
       </c>
       <c r="I25" t="n">
-        <v>80.08001198463019</v>
+        <v>80.0800119846301</v>
       </c>
       <c r="J25" t="n">
-        <v>175.3678869490539</v>
+        <v>175.3678869490541</v>
       </c>
       <c r="K25" t="n">
-        <v>429.5203124154183</v>
+        <v>429.5203124154189</v>
       </c>
       <c r="L25" t="n">
-        <v>796.2453533814025</v>
+        <v>796.2453533814034</v>
       </c>
       <c r="M25" t="n">
-        <v>1190.56764149844</v>
+        <v>1190.567641498441</v>
       </c>
       <c r="N25" t="n">
-        <v>1543.280970043327</v>
+        <v>1543.28097004332</v>
       </c>
       <c r="O25" t="n">
-        <v>1842.61056896374</v>
+        <v>1842.610568963734</v>
       </c>
       <c r="P25" t="n">
-        <v>2125.383311914888</v>
+        <v>2125.383311914882</v>
       </c>
       <c r="Q25" t="n">
-        <v>2253.15885058489</v>
+        <v>2253.158850584885</v>
       </c>
       <c r="R25" t="n">
-        <v>2214.512193482698</v>
+        <v>2214.512193482693</v>
       </c>
       <c r="S25" t="n">
-        <v>2074.010109449804</v>
+        <v>2074.0101094498</v>
       </c>
       <c r="T25" t="n">
-        <v>1903.42729415961</v>
+        <v>1903.427294159605</v>
       </c>
       <c r="U25" t="n">
-        <v>1665.508227425533</v>
+        <v>1665.508227425529</v>
       </c>
       <c r="V25" t="n">
-        <v>1462.007539359926</v>
+        <v>1462.007539359922</v>
       </c>
       <c r="W25" t="n">
-        <v>1223.774169463245</v>
+        <v>1223.774169463241</v>
       </c>
       <c r="X25" t="n">
-        <v>1046.968418705507</v>
+        <v>1046.968418705504</v>
       </c>
       <c r="Y25" t="n">
-        <v>877.3596397022566</v>
+        <v>877.359639702254</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467798</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
         <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>603.8454215455611</v>
+        <v>625.3777437664558</v>
       </c>
       <c r="L26" t="n">
-        <v>1468.364237198916</v>
+        <v>1076.411957014865</v>
       </c>
       <c r="M26" t="n">
-        <v>2305.516762226677</v>
+        <v>1609.943861686789</v>
       </c>
       <c r="N26" t="n">
-        <v>2852.295579285459</v>
+        <v>2156.722678745572</v>
       </c>
       <c r="O26" t="n">
-        <v>3355.268050164796</v>
+        <v>3036.687329075026</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521974</v>
+        <v>3750.042416521972</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277657</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146292</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833285</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805547</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6300,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
         <v>174.8241863873065</v>
@@ -6309,7 +6309,7 @@
         <v>413.0883853676536</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502697993</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899657</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257032</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913833</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415462</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643384</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302696</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L28" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M28" t="n">
         <v>1176.995117350173</v>
@@ -6418,7 +6418,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
         <v>1262.182746297367</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519658</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="29">
@@ -6440,40 +6440,40 @@
         <v>2033.1075426895</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467793</v>
+        <v>698.903701546779</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
         <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>907.4660419013965</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L29" t="n">
-        <v>1771.984857554751</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M29" t="n">
-        <v>2305.516762226676</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N29" t="n">
-        <v>2852.295579285458</v>
+        <v>2568.163811692541</v>
       </c>
       <c r="O29" t="n">
         <v>3355.268050164795</v>
@@ -6482,25 +6482,25 @@
         <v>3750.042416521973</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R29" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
         <v>2714.947448833287</v>
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456144</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644874</v>
       </c>
       <c r="D30" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032362</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F30" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
         <v>174.8241863873065</v>
@@ -6585,7 +6585,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y30" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="31">
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698003</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899667</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257042</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302709</v>
       </c>
       <c r="I31" t="n">
         <v>81.14691689668916</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350173</v>
@@ -6640,31 +6640,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052751</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644067</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519668</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
         <v>1400.778593038484</v>
@@ -6686,49 +6686,49 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467787</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557146</v>
+        <v>270.0260478557147</v>
       </c>
       <c r="K32" t="n">
-        <v>603.8454215455611</v>
+        <v>924.7493799910144</v>
       </c>
       <c r="L32" t="n">
-        <v>1468.364237198916</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M32" t="n">
-        <v>2001.89614187084</v>
+        <v>1909.315497911348</v>
       </c>
       <c r="N32" t="n">
-        <v>2852.295579285458</v>
+        <v>2456.09431497013</v>
       </c>
       <c r="O32" t="n">
-        <v>3355.268050164795</v>
+        <v>3336.058965299585</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521973</v>
+        <v>3730.833331656763</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277656</v>
+        <v>3979.119693412445</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
         <v>3629.895850863832</v>
@@ -6740,10 +6740,10 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="33">
@@ -6753,43 +6753,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456142</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644872</v>
       </c>
       <c r="D33" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977805</v>
       </c>
       <c r="F33" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572842</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951516</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873063</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676537</v>
       </c>
       <c r="L33" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D34" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913843</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350173</v>
@@ -6877,31 +6877,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S34" t="n">
         <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V34" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X34" t="n">
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C35" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.59465869716</v>
       </c>
       <c r="D35" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E35" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388312</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467795</v>
+        <v>698.9037015467779</v>
       </c>
       <c r="G35" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H35" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I35" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J35" t="n">
         <v>270.0260478557146</v>
@@ -6953,34 +6953,34 @@
         <v>3083.181225561918</v>
       </c>
       <c r="P35" t="n">
-        <v>3750.042416521974</v>
+        <v>3477.955591919096</v>
       </c>
       <c r="Q35" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R35" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S35" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309625</v>
       </c>
       <c r="T35" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.97669464192</v>
       </c>
       <c r="U35" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.89585086383</v>
       </c>
       <c r="V35" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W35" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146292</v>
       </c>
       <c r="X35" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833285</v>
       </c>
       <c r="Y35" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805547</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7011,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I36" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J36" t="n">
         <v>174.8241863873065</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D37" t="n">
-        <v>549.9474938257042</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F37" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H37" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I37" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J37" t="n">
         <v>172.7749345960314</v>
@@ -7099,7 +7099,7 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L37" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M37" t="n">
         <v>1176.995117350173</v>
@@ -7111,10 +7111,10 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P37" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q37" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R37" t="n">
         <v>2271.591606277852</v>
@@ -7123,7 +7123,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T37" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U37" t="n">
         <v>1711.385138644068</v>
@@ -7132,13 +7132,13 @@
         <v>1504.150283386255</v>
       </c>
       <c r="W37" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X37" t="n">
         <v>1081.642828347423</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C38" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.59465869716</v>
       </c>
       <c r="D38" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E38" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388312</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467791</v>
+        <v>698.9037015467779</v>
       </c>
       <c r="G38" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H38" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I38" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J38" t="n">
-        <v>393.2994530991701</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K38" t="n">
-        <v>727.1188267890166</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L38" t="n">
-        <v>1178.153040037425</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M38" t="n">
-        <v>1711.68494470935</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N38" t="n">
-        <v>2258.463761768132</v>
+        <v>2475.303399835339</v>
       </c>
       <c r="O38" t="n">
-        <v>2761.436232647469</v>
+        <v>3355.268050164794</v>
       </c>
       <c r="P38" t="n">
-        <v>3474.791320094415</v>
+        <v>3750.042416521972</v>
       </c>
       <c r="Q38" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R38" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S38" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309625</v>
       </c>
       <c r="T38" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.97669464192</v>
       </c>
       <c r="U38" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.89585086383</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W38" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146292</v>
       </c>
       <c r="X38" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833285</v>
       </c>
       <c r="Y38" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805547</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I39" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J39" t="n">
         <v>174.8241863873065</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502698003</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899667</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257042</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F40" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H40" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I40" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J40" t="n">
         <v>172.7749345960314</v>
@@ -7336,7 +7336,7 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L40" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M40" t="n">
         <v>1176.995117350173</v>
@@ -7351,31 +7351,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q40" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R40" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S40" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T40" t="n">
         <v>1953.038372570352</v>
       </c>
       <c r="U40" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V40" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W40" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X40" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519668</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C41" t="n">
         <v>1711.594658697161</v>
@@ -7397,61 +7397,61 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F41" t="n">
-        <v>698.903701546779</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G41" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H41" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I41" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J41" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K41" t="n">
-        <v>603.8454215455611</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L41" t="n">
-        <v>1054.87963479397</v>
+        <v>1635.769886219269</v>
       </c>
       <c r="M41" t="n">
-        <v>1863.465327102306</v>
+        <v>2169.301790891193</v>
       </c>
       <c r="N41" t="n">
-        <v>2410.244144161088</v>
+        <v>2716.080607949976</v>
       </c>
       <c r="O41" t="n">
-        <v>3290.208794490543</v>
+        <v>3219.053078829313</v>
       </c>
       <c r="P41" t="n">
-        <v>3684.983160847721</v>
+        <v>3613.827445186491</v>
       </c>
       <c r="Q41" t="n">
-        <v>3933.269522603403</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R41" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S41" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T41" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U41" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V41" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W41" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X41" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y41" t="n">
         <v>2372.257749805548</v>
@@ -7464,37 +7464,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>956.1786549456147</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C42" t="n">
-        <v>781.7256256644877</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D42" t="n">
-        <v>632.7912160032365</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E42" t="n">
-        <v>473.553760997781</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F42" t="n">
-        <v>327.019203024666</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G42" t="n">
-        <v>190.6561028572846</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H42" t="n">
-        <v>100.1542084951516</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I42" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J42" t="n">
-        <v>174.8241863873068</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K42" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L42" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M42" t="n">
         <v>1227.062870902635</v>
@@ -7503,25 +7503,25 @@
         <v>1700.58591445709</v>
       </c>
       <c r="O42" t="n">
-        <v>2111.547193875145</v>
+        <v>2111.547193875144</v>
       </c>
       <c r="P42" t="n">
-        <v>2422.046785351248</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q42" t="n">
         <v>2579.688342997847</v>
       </c>
       <c r="R42" t="n">
-        <v>2579.543989590363</v>
+        <v>2579.543989590362</v>
       </c>
       <c r="S42" t="n">
-        <v>2450.106103083843</v>
+        <v>2450.106103083842</v>
       </c>
       <c r="T42" t="n">
         <v>2257.463102761698</v>
       </c>
       <c r="U42" t="n">
-        <v>2029.395255896114</v>
+        <v>2029.395255896113</v>
       </c>
       <c r="V42" t="n">
         <v>1794.243147664371</v>
@@ -7530,10 +7530,10 @@
         <v>1540.005790936169</v>
       </c>
       <c r="X42" t="n">
-        <v>1332.154290730637</v>
+        <v>1332.154290730636</v>
       </c>
       <c r="Y42" t="n">
-        <v>1124.393991965683</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913842</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415469</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302702</v>
       </c>
       <c r="I43" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J43" t="n">
         <v>172.7749345960314</v>
@@ -7576,7 +7576,7 @@
         <v>786.3326864982172</v>
       </c>
       <c r="M43" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N43" t="n">
         <v>1564.908879308444</v>
@@ -7612,7 +7612,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C44" t="n">
-        <v>1711.594658697163</v>
+        <v>1711.59465869716</v>
       </c>
       <c r="D44" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E44" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388312</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467798</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G44" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398475</v>
       </c>
       <c r="H44" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I44" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J44" t="n">
         <v>270.0260478557146</v>
@@ -7652,46 +7652,46 @@
         <v>603.8454215455611</v>
       </c>
       <c r="L44" t="n">
-        <v>1054.87963479397</v>
+        <v>1243.212295711678</v>
       </c>
       <c r="M44" t="n">
-        <v>1588.411539465894</v>
+        <v>1776.744200383602</v>
       </c>
       <c r="N44" t="n">
-        <v>2156.722678745573</v>
+        <v>2323.523017442385</v>
       </c>
       <c r="O44" t="n">
-        <v>3036.687329075028</v>
+        <v>2826.495488321721</v>
       </c>
       <c r="P44" t="n">
-        <v>3750.042416521974</v>
+        <v>3539.850575768667</v>
       </c>
       <c r="Q44" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R44" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S44" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T44" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U44" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W44" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X44" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y44" t="n">
-        <v>2372.25774980555</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="45">
@@ -7722,16 +7722,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I45" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J45" t="n">
         <v>174.8241863873065</v>
       </c>
       <c r="K45" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L45" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M45" t="n">
         <v>1227.062870902635</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502698005</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899668</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D46" t="n">
-        <v>549.9474938257044</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913846</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415475</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643398</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0229611302707</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I46" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J46" t="n">
         <v>172.7749345960314</v>
@@ -7810,7 +7810,7 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L46" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M46" t="n">
         <v>1176.995117350173</v>
@@ -7825,31 +7825,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q46" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R46" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S46" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T46" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U46" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V46" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W46" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X46" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519668</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
   </sheetData>
@@ -8453,25 +8453,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>204.9758093342903</v>
+        <v>204.9758093342901</v>
       </c>
       <c r="L8" t="n">
-        <v>217.0161097528868</v>
+        <v>217.0161097528864</v>
       </c>
       <c r="M8" t="n">
-        <v>209.482905876214</v>
+        <v>209.4829058762137</v>
       </c>
       <c r="N8" t="n">
-        <v>208.2121457970549</v>
+        <v>208.2121457970545</v>
       </c>
       <c r="O8" t="n">
-        <v>210.078785930834</v>
+        <v>210.0787859308337</v>
       </c>
       <c r="P8" t="n">
-        <v>214.1468792646048</v>
+        <v>214.1468792646045</v>
       </c>
       <c r="Q8" t="n">
-        <v>209.4747279587411</v>
+        <v>209.4747279587408</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>120.8313713882158</v>
+        <v>120.8313713882157</v>
       </c>
       <c r="K9" t="n">
-        <v>127.575792041221</v>
+        <v>127.5757920412208</v>
       </c>
       <c r="L9" t="n">
-        <v>124.750950618753</v>
+        <v>124.7509506187528</v>
       </c>
       <c r="M9" t="n">
-        <v>126.0260831566821</v>
+        <v>126.0260831566818</v>
       </c>
       <c r="N9" t="n">
-        <v>114.8074317919421</v>
+        <v>114.8074317919418</v>
       </c>
       <c r="O9" t="n">
-        <v>127.4706082116732</v>
+        <v>127.470608211673</v>
       </c>
       <c r="P9" t="n">
-        <v>121.8347508378856</v>
+        <v>121.8347508378854</v>
       </c>
       <c r="Q9" t="n">
-        <v>131.866735154494</v>
+        <v>131.8667351544939</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>126.9607951918622</v>
+        <v>126.9607951918621</v>
       </c>
       <c r="M10" t="n">
-        <v>130.5711623489679</v>
+        <v>130.5711623489678</v>
       </c>
       <c r="N10" t="n">
-        <v>119.5295770947142</v>
+        <v>119.529577094714</v>
       </c>
       <c r="O10" t="n">
-        <v>130.9231825035965</v>
+        <v>130.9231825035964</v>
       </c>
       <c r="P10" t="n">
-        <v>131.2819166079675</v>
+        <v>131.2819166079674</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8930,7 +8930,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>-5.400124791776761e-13</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9635,13 +9635,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>178.3002773778598</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9653,10 +9653,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>25.59818437845539</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9875,22 +9875,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>21.74982042514614</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>306.6874953089257</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10112,19 +10112,19 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>306.6874953089246</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>287.0017854473906</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>-1.06581410364015e-13</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10349,19 +10349,19 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>306.6874953089247</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>19.40311602546426</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10601,13 +10601,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>274.8351763665432</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>209.1187564935592</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>124.5185911550055</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10832,19 +10832,19 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>343.548528596629</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,28 +11057,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>277.8321087236478</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>71.87446026386803</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11300,22 +11300,22 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>190.2350110279876</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>21.74982042514819</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>75.54894152059322</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>323.6959619980818</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>208.782269760033</v>
       </c>
       <c r="F11" t="n">
-        <v>365.2991159687855</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>253.0308346143947</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>344.6610088831276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>124.4488784861024</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>4.24869128007029</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>128.6975697661684</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>341.1569118905548</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>134.0346217065113</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>340.353440299336</v>
       </c>
       <c r="F14" t="n">
-        <v>365.2991159687855</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>103.9987141826179</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>286.175328697209</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>73.92207912926006</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>54.77549063691229</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>128.6975697661686</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23729,19 +23729,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>332.0618795246034</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>314.6009296321304</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>11.51580409245497</v>
       </c>
       <c r="F17" t="n">
-        <v>356.2040836028345</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23783,13 +23783,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>153.2460080007433</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>148.7285216456163</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23972,16 +23972,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>144.6828417338738</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>297.9288497346124</v>
       </c>
       <c r="G20" t="n">
-        <v>360.2497635145766</v>
+        <v>360.2497635145763</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>153.2460080007433</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1.001865257421741e-12</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1.172395514004165e-12</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>878499.585922838</v>
+        <v>878499.5859228375</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>878499.585922838</v>
+        <v>878499.5859228374</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>893707.4685272921</v>
+        <v>893707.4685272926</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>893707.468527292</v>
+        <v>893707.4685272926</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>975339.0457791791</v>
+        <v>975339.045779179</v>
       </c>
     </row>
     <row r="10">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>491565.8032302228</v>
+        <v>491565.8032302231</v>
       </c>
       <c r="C2" t="n">
-        <v>491565.803230223</v>
+        <v>491565.8032302229</v>
       </c>
       <c r="D2" t="n">
-        <v>491571.477957832</v>
+        <v>491571.4779578322</v>
       </c>
       <c r="E2" t="n">
-        <v>453255.9039039866</v>
+        <v>453255.9039039863</v>
       </c>
       <c r="F2" t="n">
-        <v>453255.9039039866</v>
+        <v>453255.9039039859</v>
       </c>
       <c r="G2" t="n">
+        <v>461190.4513497887</v>
+      </c>
+      <c r="H2" t="n">
         <v>461190.4513497886</v>
       </c>
-      <c r="H2" t="n">
-        <v>461190.4513497885</v>
-      </c>
       <c r="I2" t="n">
-        <v>492625.0619185697</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="J2" t="n">
         <v>492625.0619185697</v>
       </c>
       <c r="K2" t="n">
-        <v>492625.0619185696</v>
+        <v>492625.0619185694</v>
       </c>
       <c r="L2" t="n">
-        <v>492625.0619185696</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="M2" t="n">
-        <v>492625.0619185696</v>
+        <v>492625.0619185692</v>
       </c>
       <c r="N2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185695</v>
       </c>
       <c r="O2" t="n">
-        <v>492625.0619185693</v>
+        <v>492625.0619185697</v>
       </c>
       <c r="P2" t="n">
-        <v>492625.0619185696</v>
+        <v>492625.0619185692</v>
       </c>
     </row>
     <row r="3">
@@ -26366,43 +26366,43 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>8.432652088444862e-11</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>25312.06338852225</v>
+        <v>25312.0633885227</v>
       </c>
       <c r="E3" t="n">
         <v>1133284.321149372</v>
       </c>
       <c r="F3" t="n">
-        <v>1.569890173414023e-10</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>7276.025892760736</v>
+        <v>7276.025892761112</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>45099.8544150275</v>
+        <v>45099.8544150272</v>
       </c>
       <c r="J3" t="n">
-        <v>33793.44926224783</v>
+        <v>33793.44926224764</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>7276.025892760748</v>
+        <v>7276.025892761107</v>
       </c>
       <c r="M3" t="n">
-        <v>207188.568292073</v>
+        <v>207188.5682920729</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>30304.08340211332</v>
+        <v>30304.08340211292</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,22 +26421,22 @@
         <v>430898.5094426759</v>
       </c>
       <c r="D4" t="n">
-        <v>423023.1125599514</v>
+        <v>423023.1125599513</v>
       </c>
       <c r="E4" t="n">
-        <v>52395.73565602442</v>
+        <v>52395.73565602425</v>
       </c>
       <c r="F4" t="n">
-        <v>52395.73565602439</v>
+        <v>52395.73565602425</v>
       </c>
       <c r="G4" t="n">
-        <v>59938.40278207086</v>
+        <v>59938.40278207106</v>
       </c>
       <c r="H4" t="n">
-        <v>59938.40278207084</v>
+        <v>59938.40278207108</v>
       </c>
       <c r="I4" t="n">
-        <v>81400.49192835824</v>
+        <v>81400.4919283583</v>
       </c>
       <c r="J4" t="n">
         <v>80755.36360646591</v>
@@ -26445,19 +26445,19 @@
         <v>80755.36360646592</v>
       </c>
       <c r="L4" t="n">
+        <v>80755.36360646591</v>
+      </c>
+      <c r="M4" t="n">
+        <v>80755.36360646594</v>
+      </c>
+      <c r="N4" t="n">
+        <v>80755.36360646594</v>
+      </c>
+      <c r="O4" t="n">
         <v>80755.36360646592</v>
       </c>
-      <c r="M4" t="n">
-        <v>80755.36360646595</v>
-      </c>
-      <c r="N4" t="n">
-        <v>80755.36360646592</v>
-      </c>
-      <c r="O4" t="n">
-        <v>80755.36360646594</v>
-      </c>
       <c r="P4" t="n">
-        <v>80755.36360646598</v>
+        <v>80755.36360646591</v>
       </c>
     </row>
     <row r="5">
@@ -26473,25 +26473,25 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>34271.91803061344</v>
+        <v>34271.91803061346</v>
       </c>
       <c r="E5" t="n">
+        <v>77801.67147047337</v>
+      </c>
+      <c r="F5" t="n">
         <v>77801.6714704734</v>
       </c>
-      <c r="F5" t="n">
-        <v>77801.67147047342</v>
-      </c>
       <c r="G5" t="n">
-        <v>78566.28174644653</v>
+        <v>78566.28174644656</v>
       </c>
       <c r="H5" t="n">
-        <v>78566.28174644653</v>
+        <v>78566.28174644656</v>
       </c>
       <c r="I5" t="n">
-        <v>88877.88236630609</v>
+        <v>88877.88236630603</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="K5" t="n">
         <v>89377.94167480612</v>
@@ -26500,10 +26500,10 @@
         <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="N5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="O5" t="n">
         <v>89377.94167480612</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>27039.69378754692</v>
+        <v>27035.2802096791</v>
       </c>
       <c r="C6" t="n">
-        <v>27039.69378754704</v>
+        <v>27035.28020967893</v>
       </c>
       <c r="D6" t="n">
-        <v>8964.383978744976</v>
+        <v>8959.994045575046</v>
       </c>
       <c r="E6" t="n">
-        <v>-810225.8243718833</v>
+        <v>-810389.8625302769</v>
       </c>
       <c r="F6" t="n">
-        <v>323058.4967774886</v>
+        <v>322894.458619094</v>
       </c>
       <c r="G6" t="n">
-        <v>315409.7409285104</v>
+        <v>315278.7633844733</v>
       </c>
       <c r="H6" t="n">
-        <v>322685.7668212709</v>
+        <v>322554.7892772343</v>
       </c>
       <c r="I6" t="n">
-        <v>277246.8332088779</v>
+        <v>277246.8332088783</v>
       </c>
       <c r="J6" t="n">
-        <v>288698.3073750498</v>
+        <v>288698.30737505</v>
       </c>
       <c r="K6" t="n">
+        <v>322491.7566372974</v>
+      </c>
+      <c r="L6" t="n">
+        <v>315215.7307445367</v>
+      </c>
+      <c r="M6" t="n">
+        <v>115303.1883452243</v>
+      </c>
+      <c r="N6" t="n">
         <v>322491.7566372975</v>
       </c>
-      <c r="L6" t="n">
-        <v>315215.7307445368</v>
-      </c>
-      <c r="M6" t="n">
-        <v>115303.1883452246</v>
-      </c>
-      <c r="N6" t="n">
-        <v>322491.7566372977</v>
-      </c>
       <c r="O6" t="n">
-        <v>292187.673235184</v>
+        <v>292187.6732351847</v>
       </c>
       <c r="P6" t="n">
-        <v>322491.7566372975</v>
+        <v>322491.7566372972</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="F2" t="n">
-        <v>41.57692977292594</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="G2" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="H2" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="I2" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>29.55587296391962</v>
+        <v>29.55587296392014</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26765,7 +26765,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="M3" t="n">
         <v>1089.776700593298</v>
@@ -26796,10 +26796,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="F4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="F4" t="n">
-        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022926</v>
@@ -26808,28 +26808,28 @@
         <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>1001.000149807877</v>
+        <v>1001.000149807876</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="N4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="O4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="P4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>9.095032365950921</v>
+        <v>9.09503236595139</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>37.88010425264162</v>
+        <v>37.88010425264117</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>9.095032365950935</v>
+        <v>9.095032365951383</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>37.88010425264164</v>
+        <v>37.88010425264115</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>29.55587296391962</v>
+        <v>29.55587296392014</v>
       </c>
       <c r="E3" t="n">
         <v>1060.220827629378</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2.610156988506491e-13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>169.5986944055848</v>
+        <v>169.5986944055836</v>
       </c>
       <c r="J4" t="n">
-        <v>13.33631140073737</v>
+        <v>13.33631140073805</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>9.095032365950921</v>
+        <v>9.09503236595139</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>37.88010425264162</v>
+        <v>37.88010425264117</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>2.610156988506491e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27874,7 +27874,7 @@
         <v>205.8951748269224</v>
       </c>
       <c r="J8" t="n">
-        <v>1.864795794928204</v>
+        <v>1.864795794928026</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>142.4054431468992</v>
+        <v>142.405443146899</v>
       </c>
       <c r="S8" t="n">
-        <v>206.3125139875908</v>
+        <v>206.3125139875907</v>
       </c>
       <c r="T8" t="n">
         <v>222.5757256087562</v>
@@ -27950,7 +27950,7 @@
         <v>111.6214628000196</v>
       </c>
       <c r="I9" t="n">
-        <v>87.20782527814367</v>
+        <v>87.20782527814363</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>96.21073096700873</v>
+        <v>96.21073096700866</v>
       </c>
       <c r="S9" t="n">
         <v>170.5023303302322</v>
@@ -28029,13 +28029,13 @@
         <v>161.7533094950016</v>
       </c>
       <c r="I10" t="n">
-        <v>153.8476744721002</v>
+        <v>153.8476744721001</v>
       </c>
       <c r="J10" t="n">
-        <v>89.59104857502683</v>
+        <v>89.59104857502676</v>
       </c>
       <c r="K10" t="n">
-        <v>16.07729417868789</v>
+        <v>16.07729417868778</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>81.69910643414252</v>
+        <v>81.69910643414245</v>
       </c>
       <c r="R10" t="n">
-        <v>174.896943054554</v>
+        <v>174.8969430545539</v>
       </c>
       <c r="S10" t="n">
         <v>223.087768389893</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="C11" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="D11" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="E11" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="F11" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="G11" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="H11" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="T11" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="U11" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="V11" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="W11" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="X11" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="Y11" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292579</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="C13" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="D13" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="E13" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="F13" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="G13" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="H13" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="I13" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="J13" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="K13" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="L13" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="M13" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="N13" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="O13" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="P13" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="Q13" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="R13" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="S13" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="T13" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="U13" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="V13" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="W13" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="X13" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292579</v>
       </c>
       <c r="Y13" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292579</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>41.57692977292594</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="C14" t="n">
-        <v>41.57692977292594</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="D14" t="n">
-        <v>41.57692977292594</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="E14" t="n">
-        <v>41.57692977292594</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="F14" t="n">
-        <v>41.57692977292594</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="G14" t="n">
-        <v>41.57692977292594</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="H14" t="n">
-        <v>41.57692977292594</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>41.57692977292594</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="T14" t="n">
-        <v>41.57692977292594</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="U14" t="n">
-        <v>41.57692977292594</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="V14" t="n">
-        <v>41.57692977292594</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="W14" t="n">
-        <v>41.57692977292594</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="X14" t="n">
-        <v>41.57692977292594</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="Y14" t="n">
-        <v>41.57692977292594</v>
+        <v>41.5769297729258</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="C16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="D16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="E16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="F16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="G16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="H16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="I16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="J16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="K16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="L16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="M16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="N16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="O16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="P16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="Q16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="R16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="S16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="T16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="U16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="V16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="W16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="X16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.5769297729258</v>
       </c>
       <c r="Y16" t="n">
-        <v>41.57692977292594</v>
+        <v>41.5769297729258</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="C17" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="D17" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="E17" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="F17" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="G17" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="H17" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="T17" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="U17" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="V17" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="W17" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="X17" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="Y17" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="C19" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="D19" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="E19" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="F19" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="G19" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="H19" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="I19" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="J19" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="K19" t="n">
-        <v>50.67196213887686</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="M19" t="n">
-        <v>11.41914327173964</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="N19" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="P19" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="Q19" t="n">
-        <v>50.67196213887686</v>
+        <v>11.41914327173274</v>
       </c>
       <c r="R19" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="S19" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="T19" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="U19" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="V19" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="W19" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="X19" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="Y19" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="C20" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="D20" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="E20" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="F20" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="G20" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="H20" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="T20" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="U20" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="V20" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="W20" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="X20" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="Y20" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="C22" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="D22" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="E22" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="F22" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="G22" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="H22" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="I22" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="J22" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="K22" t="n">
-        <v>50.67196213887686</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="M22" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="N22" t="n">
-        <v>11.41914327173947</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="P22" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="Q22" t="n">
-        <v>50.67196213887686</v>
+        <v>11.41914327173274</v>
       </c>
       <c r="R22" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="S22" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="T22" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="U22" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="V22" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="W22" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="X22" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="Y22" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="C23" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="D23" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="E23" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="F23" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="G23" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="H23" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="T23" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="U23" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="V23" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="W23" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="X23" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="Y23" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="C25" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="D25" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="E25" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="F25" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="G25" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="H25" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="I25" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="J25" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="K25" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="L25" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="M25" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="N25" t="n">
-        <v>11.41914327173993</v>
+        <v>11.41914327173214</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="Q25" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="R25" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="S25" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="T25" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="U25" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="V25" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="W25" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="X25" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
       <c r="Y25" t="n">
-        <v>50.67196213887686</v>
+        <v>50.67196213887719</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="32">
@@ -29767,7 +29767,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859188</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="41">
@@ -30660,7 +30660,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.9751366185921</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R43" t="n">
         <v>46.97513661859256</v>
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859244</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1188175797544506</v>
+        <v>0.1188175797544527</v>
       </c>
       <c r="H8" t="n">
-        <v>1.216840538660268</v>
+        <v>1.216840538660289</v>
       </c>
       <c r="I8" t="n">
-        <v>4.580714743483462</v>
+        <v>4.580714743483543</v>
       </c>
       <c r="J8" t="n">
-        <v>10.08449355968431</v>
+        <v>10.08449355968449</v>
       </c>
       <c r="K8" t="n">
-        <v>15.11404171069021</v>
+        <v>15.11404171069048</v>
       </c>
       <c r="L8" t="n">
-        <v>18.75030521710048</v>
+        <v>18.75030521710081</v>
       </c>
       <c r="M8" t="n">
-        <v>20.86332735105869</v>
+        <v>20.86332735105906</v>
       </c>
       <c r="N8" t="n">
-        <v>21.20091779953603</v>
+        <v>21.2009177995364</v>
       </c>
       <c r="O8" t="n">
-        <v>20.01942549085271</v>
+        <v>20.01942549085306</v>
       </c>
       <c r="P8" t="n">
-        <v>17.0861164906647</v>
+        <v>17.08611649066501</v>
       </c>
       <c r="Q8" t="n">
-        <v>12.83096191570844</v>
+        <v>12.83096191570866</v>
       </c>
       <c r="R8" t="n">
-        <v>7.463674794250515</v>
+        <v>7.463674794250648</v>
       </c>
       <c r="S8" t="n">
-        <v>2.707555598654547</v>
+        <v>2.707555598654594</v>
       </c>
       <c r="T8" t="n">
-        <v>0.5201239553751079</v>
+        <v>0.520123955375117</v>
       </c>
       <c r="U8" t="n">
-        <v>0.009505406380356048</v>
+        <v>0.009505406380356216</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.06357300977144974</v>
+        <v>0.06357300977145086</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6139814364768963</v>
+        <v>0.6139814364769072</v>
       </c>
       <c r="I9" t="n">
-        <v>2.188807573271406</v>
+        <v>2.188807573271444</v>
       </c>
       <c r="J9" t="n">
-        <v>6.006255278450873</v>
+        <v>6.006255278450979</v>
       </c>
       <c r="K9" t="n">
-        <v>10.265646933138</v>
+        <v>10.26564693313819</v>
       </c>
       <c r="L9" t="n">
-        <v>13.80342916112114</v>
+        <v>13.80342916112138</v>
       </c>
       <c r="M9" t="n">
-        <v>16.10795076533619</v>
+        <v>16.10795076533647</v>
       </c>
       <c r="N9" t="n">
-        <v>16.53428029139122</v>
+        <v>16.53428029139151</v>
       </c>
       <c r="O9" t="n">
-        <v>15.1256362327712</v>
+        <v>15.12563623277147</v>
       </c>
       <c r="P9" t="n">
-        <v>12.13965657644465</v>
+        <v>12.13965657644486</v>
       </c>
       <c r="Q9" t="n">
-        <v>8.115038931527515</v>
+        <v>8.115038931527659</v>
       </c>
       <c r="R9" t="n">
-        <v>3.947103185634398</v>
+        <v>3.947103185634468</v>
       </c>
       <c r="S9" t="n">
-        <v>1.180840773605656</v>
+        <v>1.180840773605677</v>
       </c>
       <c r="T9" t="n">
-        <v>0.2562438420173785</v>
+        <v>0.256243842017383</v>
       </c>
       <c r="U9" t="n">
-        <v>0.004182434853384853</v>
+        <v>0.004182434853384927</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05329747583657635</v>
+        <v>0.05329747583657729</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4738630124379246</v>
+        <v>0.473863012437933</v>
       </c>
       <c r="I10" t="n">
-        <v>1.602800455158133</v>
+        <v>1.602800455158161</v>
       </c>
       <c r="J10" t="n">
-        <v>3.768131541645948</v>
+        <v>3.768131541646014</v>
       </c>
       <c r="K10" t="n">
-        <v>6.19219764719496</v>
+        <v>6.192197647195069</v>
       </c>
       <c r="L10" t="n">
-        <v>7.923881089376088</v>
+        <v>7.923881089376229</v>
       </c>
       <c r="M10" t="n">
-        <v>8.354621598637145</v>
+        <v>8.354621598637292</v>
       </c>
       <c r="N10" t="n">
-        <v>8.155967370519003</v>
+        <v>8.155967370519146</v>
       </c>
       <c r="O10" t="n">
-        <v>7.533355948246268</v>
+        <v>7.5333559482464</v>
       </c>
       <c r="P10" t="n">
-        <v>6.446087441180104</v>
+        <v>6.446087441180218</v>
       </c>
       <c r="Q10" t="n">
-        <v>4.462936817551862</v>
+        <v>4.462936817551941</v>
       </c>
       <c r="R10" t="n">
-        <v>2.396448322615514</v>
+        <v>2.396448322615556</v>
       </c>
       <c r="S10" t="n">
-        <v>0.9288296470792439</v>
+        <v>0.9288296470792603</v>
       </c>
       <c r="T10" t="n">
-        <v>0.2277255785744625</v>
+        <v>0.2277255785744665</v>
       </c>
       <c r="U10" t="n">
-        <v>0.00290713504563144</v>
+        <v>0.002907135045631492</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32552,13 +32552,13 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L21" t="n">
         <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
         <v>609.6478166837925</v>
@@ -32801,7 +32801,7 @@
         <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970255</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
         <v>447.6103584002927</v>
@@ -33029,10 +33029,10 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N27" t="n">
         <v>609.6478166837925</v>
@@ -33272,7 +33272,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
         <v>557.708647897025</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H32" t="n">
         <v>44.86703772844668</v>
@@ -33418,40 +33418,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T32" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H33" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33570,43 +33570,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K34" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L34" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P34" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q34" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U34" t="n">
         <v>0.1071911508780295</v>
@@ -33746,13 +33746,13 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
         <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
@@ -34211,7 +34211,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34448,7 +34448,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138796</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.15534638599217</v>
+        <v>87.15534638599202</v>
       </c>
       <c r="K13" t="n">
-        <v>247.6245893172455</v>
+        <v>247.6245893172453</v>
       </c>
       <c r="L13" t="n">
-        <v>361.334301943124</v>
+        <v>361.3343019431239</v>
       </c>
       <c r="M13" t="n">
-        <v>389.2103091664097</v>
+        <v>389.2103091664096</v>
       </c>
       <c r="N13" t="n">
-        <v>386.433875940466</v>
+        <v>386.4338759404658</v>
       </c>
       <c r="O13" t="n">
-        <v>343.9300599955657</v>
+        <v>343.9300599955655</v>
       </c>
       <c r="P13" t="n">
-        <v>276.5340009180363</v>
+        <v>276.5340009180362</v>
       </c>
       <c r="Q13" t="n">
-        <v>119.9711683108196</v>
+        <v>119.9711683108194</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,7 +35650,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923316</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.15534638599217</v>
+        <v>87.15534638599203</v>
       </c>
       <c r="K16" t="n">
-        <v>247.6245893172455</v>
+        <v>247.6245893172454</v>
       </c>
       <c r="L16" t="n">
-        <v>361.334301943124</v>
+        <v>361.3343019431239</v>
       </c>
       <c r="M16" t="n">
-        <v>389.2103091664098</v>
+        <v>389.2103091664096</v>
       </c>
       <c r="N16" t="n">
-        <v>386.433875940466</v>
+        <v>386.4338759404658</v>
       </c>
       <c r="O16" t="n">
-        <v>343.9300599955657</v>
+        <v>343.9300599955656</v>
       </c>
       <c r="P16" t="n">
-        <v>276.5340009180364</v>
+        <v>276.5340009180362</v>
       </c>
       <c r="Q16" t="n">
-        <v>119.9711683108196</v>
+        <v>119.9711683108195</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.787000968712</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597743</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>96.25037875194306</v>
+        <v>96.25037875194342</v>
       </c>
       <c r="K19" t="n">
-        <v>256.7196216831964</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>370.4293343090749</v>
+        <v>370.4293343090753</v>
       </c>
       <c r="M19" t="n">
-        <v>359.0525226652234</v>
+        <v>398.305341532361</v>
       </c>
       <c r="N19" t="n">
-        <v>395.5289083064169</v>
+        <v>395.5289083064173</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>353.025092361517</v>
       </c>
       <c r="P19" t="n">
-        <v>285.6290332839873</v>
+        <v>285.6290332839876</v>
       </c>
       <c r="Q19" t="n">
-        <v>129.0662006767705</v>
+        <v>89.81338180962639</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36130,7 +36130,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
         <v>508.0530008882191</v>
@@ -36200,13 +36200,13 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L21" t="n">
         <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
         <v>478.3061046004592</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>96.25037875194309</v>
+        <v>96.25037875194342</v>
       </c>
       <c r="K22" t="n">
-        <v>256.7196216831964</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>370.429334309075</v>
+        <v>370.4293343090753</v>
       </c>
       <c r="M22" t="n">
-        <v>398.3053415323607</v>
+        <v>398.305341532361</v>
       </c>
       <c r="N22" t="n">
-        <v>356.2760894392795</v>
+        <v>395.5289083064173</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>353.025092361517</v>
       </c>
       <c r="P22" t="n">
-        <v>285.6290332839873</v>
+        <v>285.6290332839876</v>
       </c>
       <c r="Q22" t="n">
-        <v>129.0662006767705</v>
+        <v>89.81338180962639</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,13 +36355,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>633.890391770192</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302268</v>
@@ -36373,10 +36373,10 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>276.3924891821749</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
         <v>59.61319854222478</v>
@@ -36449,7 +36449,7 @@
         <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>96.25037875194309</v>
+        <v>96.25037875194342</v>
       </c>
       <c r="K25" t="n">
-        <v>256.7196216831964</v>
+        <v>256.7196216831967</v>
       </c>
       <c r="L25" t="n">
-        <v>370.429334309075</v>
+        <v>370.4293343090753</v>
       </c>
       <c r="M25" t="n">
-        <v>398.3053415323607</v>
+        <v>398.305341532361</v>
       </c>
       <c r="N25" t="n">
-        <v>356.27608943928</v>
+        <v>356.2760894392722</v>
       </c>
       <c r="O25" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
-        <v>285.6290332839873</v>
+        <v>285.6290332839876</v>
       </c>
       <c r="Q25" t="n">
-        <v>129.0662006767705</v>
+        <v>129.0662006767708</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,22 +36595,22 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>358.9411069805466</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>845.6086111391525</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
         <v>250.7943048037195</v>
@@ -36677,10 +36677,10 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N27" t="n">
         <v>478.3061046004592</v>
@@ -36750,25 +36750,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165873</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3693751564862</v>
@@ -36832,19 +36832,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>643.8787818643251</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>795.0547863356097</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -36920,7 +36920,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
         <v>415.1124034525806</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N32" t="n">
-        <v>858.9893307218362</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509647</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>79.01631456768909</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,22 +37145,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859626</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L34" t="n">
         <v>366.7325087887907</v>
@@ -37236,10 +37236,10 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O34" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P34" t="n">
         <v>281.932207763703</v>
@@ -37321,13 +37321,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>673.597162585915</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>459.9130612972787</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37394,13 +37394,13 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
         <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K37" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L37" t="n">
         <v>366.7325087887907</v>
@@ -37473,13 +37473,13 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O37" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P37" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637023</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3693751564862</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>315.3055921237181</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554005</v>
@@ -37552,19 +37552,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>895.8503640095405</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165875</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
@@ -37710,7 +37710,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>816.7532245538746</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>322.6687650675875</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37859,7 +37859,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
@@ -37956,7 +37956,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3693751564858</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,22 +38020,22 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>645.8251254203198</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>574.0516558380597</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
         <v>59.61319854222478</v>
@@ -38096,7 +38096,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340054</v>
@@ -38184,7 +38184,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861325</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
